--- a/results/initial_look/nonenergy_2018_workbook.xlsx
+++ b/results/initial_look/nonenergy_2018_workbook.xlsx
@@ -5770,10 +5770,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>0.5892833705220001</v>
+        <v>0.62029828476</v>
       </c>
       <c r="E2">
-        <v>1.850508492048001</v>
+        <v>1.94790367584</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5821,10 +5821,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>11.67713843688</v>
+        <v>12.2917246704</v>
       </c>
       <c r="E5">
-        <v>13.17104059320001</v>
+        <v>13.864253256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5855,10 +5855,10 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.4772537648</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.215541516400001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5906,10 +5906,10 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>756.60503007024</v>
+        <v>756.6050300702402</v>
       </c>
       <c r="E10">
-        <v>763.74630829224</v>
+        <v>763.7463400348828</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5991,10 +5991,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>44.51236867872417</v>
+        <v>44.51236871115704</v>
       </c>
       <c r="E15">
-        <v>67.33259551475197</v>
+        <v>67.33260713503364</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6042,10 +6042,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>222.1619336192309</v>
+        <v>135.7517683670348</v>
       </c>
       <c r="E18">
-        <v>248.87629320552</v>
+        <v>145.1025901427007</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9214,10 +9214,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>0.601383222522</v>
+        <v>0.6323981367600001</v>
       </c>
       <c r="E2">
-        <v>1.873745232048001</v>
+        <v>1.97114041584</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9265,10 +9265,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>69.39473038488001</v>
+        <v>70.00931661840001</v>
       </c>
       <c r="E5">
-        <v>70.79493195720001</v>
+        <v>71.48814462</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9299,10 +9299,10 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>10.489273776</v>
+        <v>11.9665275408</v>
       </c>
       <c r="E7">
-        <v>3.058499268</v>
+        <v>5.2740407844</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9353,7 +9353,7 @@
         <v>3685.30144008624</v>
       </c>
       <c r="E10">
-        <v>3534.41806503624</v>
+        <v>3534.418096778884</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9435,10 +9435,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>325.2509576467242</v>
+        <v>325.2509576791571</v>
       </c>
       <c r="E15">
-        <v>373.513153910752</v>
+        <v>373.5131655310337</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9486,10 +9486,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>598.5863615432309</v>
+        <v>512.1761962910348</v>
       </c>
       <c r="E18">
-        <v>608.0780262535201</v>
+        <v>504.3043231907008</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9788,10 +9788,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>0.5892833705220001</v>
+        <v>0.62029828476</v>
       </c>
       <c r="E2">
-        <v>1.850508492048001</v>
+        <v>1.94790367584</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9839,10 +9839,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>33.14713257288</v>
+        <v>33.7617188064</v>
       </c>
       <c r="E5">
-        <v>34.4210602572</v>
+        <v>35.11427292</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9873,10 +9873,10 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.4772537648</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.215541516400001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9927,7 +9927,7 @@
         <v>2678.61623680224</v>
       </c>
       <c r="E10">
-        <v>2589.07592942424</v>
+        <v>2589.075961166883</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10009,10 +10009,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>153.4591848787242</v>
+        <v>153.4591849111571</v>
       </c>
       <c r="E15">
-        <v>215.202584066752</v>
+        <v>215.2025956870336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10060,10 +10060,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>368.2535788712308</v>
+        <v>281.8434136190348</v>
       </c>
       <c r="E18">
-        <v>382.1520180535201</v>
+        <v>278.3783149907007</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12084,10 +12084,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>2349.112003516504</v>
+        <v>2349.143018430742</v>
       </c>
       <c r="E2">
-        <v>2705.289589348613</v>
+        <v>2705.386984532405</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12135,10 +12135,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>651.3885372820317</v>
+        <v>652.0031235155518</v>
       </c>
       <c r="E5">
-        <v>609.5250244430639</v>
+        <v>610.2182371058639</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12169,10 +12169,10 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>236.775304908</v>
+        <v>238.2525586728</v>
       </c>
       <c r="E7">
-        <v>280.71677574</v>
+        <v>282.9323172564</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12223,7 +12223,7 @@
         <v>6867.424134860241</v>
       </c>
       <c r="E10">
-        <v>6859.625233011619</v>
+        <v>6859.625264754261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12305,10 +12305,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>2152.647099257284</v>
+        <v>2152.647099289717</v>
       </c>
       <c r="E15">
-        <v>2315.034604691747</v>
+        <v>2315.034616312028</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12356,10 +12356,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>5997.9734143683</v>
+        <v>5911.563249116103</v>
       </c>
       <c r="E18">
-        <v>6015.419348661629</v>
+        <v>5911.645645598808</v>
       </c>
     </row>
     <row r="19" spans="1:5">
